--- a/Reports/Test Cases For OpenCart Ecommerce Website.xlsx
+++ b/Reports/Test Cases For OpenCart Ecommerce Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f8df42fb1d994e7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="8_{4D454E1F-B374-401D-AFA0-AFE497C585A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D46D4861-A10A-4902-9774-016ED6AB9CC6}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="8_{4D454E1F-B374-401D-AFA0-AFE497C585A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6865CEE4-9544-43AA-9FA1-46C047228EFB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="889" xr2:uid="{27B6386B-2D70-41DD-AF73-E386C98AE057}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="889" activeTab="2" xr2:uid="{27B6386B-2D70-41DD-AF73-E386C98AE057}"/>
   </bookViews>
   <sheets>
     <sheet name="CartModule_TestCases" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="364">
   <si>
     <t>Test Plan Identifier</t>
   </si>
@@ -1073,9 +1073,6 @@
     <t>No Risk</t>
   </si>
   <si>
-    <t>showing all items are unavailable</t>
-  </si>
-  <si>
     <t>email : devendrachowdhary@gmail.com password : Devendra@123</t>
   </si>
   <si>
@@ -1095,6 +1092,45 @@
   </si>
   <si>
     <t xml:space="preserve">login successful user redirected to homepage </t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_Cart_011</t>
+  </si>
+  <si>
+    <t>check item out of stock tag displayed or not</t>
+  </si>
+  <si>
+    <t>1. Search any product 2. See tag is displayed or not 3. Click on add to cart button</t>
+  </si>
+  <si>
+    <t>out of stock tag should be displayed on item</t>
+  </si>
+  <si>
+    <t>no tag is displayed, after clicking on cart only we can see out of stock message</t>
+  </si>
+  <si>
+    <t>user is redirected to checkout page</t>
+  </si>
+  <si>
+    <t>TC_Profile_011</t>
+  </si>
+  <si>
+    <t>verifying order history functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on My Account 2. Click on Order History User </t>
+  </si>
+  <si>
+    <t>Order history</t>
+  </si>
+  <si>
+    <t>user should be able to see order history</t>
+  </si>
+  <si>
+    <t>order history is available</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1365,6 +1401,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1685,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8817343-4758-4FC4-AB72-AD2D731F02BC}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2099,10 +2138,10 @@
         <v>165</v>
       </c>
       <c r="J12" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -2230,6 +2269,38 @@
         <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" t="s">
+        <v>355</v>
+      </c>
+      <c r="J17" t="s">
+        <v>356</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2256,7 +2327,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2818,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB56E2-F63E-48AD-9D82-CA66E207A4B0}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3339,7 +3410,7 @@
         <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
         <v>342</v>
@@ -3357,6 +3428,38 @@
         <v>340</v>
       </c>
       <c r="K16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J17" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3382,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9885E825-C885-485A-A28F-29F4591B72B8}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3941,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A03F889-6611-4DB0-B40F-594CC643AAEB}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="C6" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -4187,13 +4290,13 @@
         <v>282</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" t="s">
         <v>350</v>
-      </c>
-      <c r="J7" t="s">
-        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>300</v>
@@ -4283,7 +4386,7 @@
         <v>291</v>
       </c>
       <c r="H10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
         <v>286</v>
@@ -4315,7 +4418,7 @@
         <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" t="s">
         <v>286</v>
@@ -4347,7 +4450,7 @@
         <v>295</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I12" t="s">
         <v>296</v>
